--- a/src/analysis_examples/circadb/results_jtk/cosinor_10565288_fam108c_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10565288_fam108c_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24757713333371112, 0.3438536625322318]</t>
+          <t>[0.24779428284656763, 0.3436365130193753]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.276112631705018e-11</v>
+        <v>2.091415929328377e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.276112631705018e-11</v>
+        <v>2.091415929328377e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-1.05663176336954</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48985087747907785, 0.5403187930165382]</t>
+          <t>[0.48982413396974556, 0.5403455365258705]</t>
         </is>
       </c>
       <c r="U2" t="n">
